--- a/SZForScript.xlsx
+++ b/SZForScript.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="347">
   <si>
     <t>Table</t>
   </si>
@@ -836,9 +836,6 @@
   </si>
   <si>
     <t>Son tarih</t>
-  </si>
-  <si>
-    <t>NUMBER(3, 0)</t>
   </si>
   <si>
     <t>DTMRESPONSE</t>
@@ -1152,47 +1149,7 @@
     <cellStyle name="İşaretli Hücre" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1673,8 +1630,8 @@
   <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K186" sqref="K186"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,6 +1702,15 @@
       <c r="F2">
         <v>20</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -3771,7 +3737,7 @@
         <v>234</v>
       </c>
       <c r="F124" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>43</v>
@@ -3842,7 +3808,7 @@
         <v>250</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -3850,7 +3816,7 @@
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>46</v>
@@ -3879,13 +3845,13 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>238</v>
@@ -3896,13 +3862,13 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>234</v>
@@ -3913,13 +3879,13 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>238</v>
@@ -3930,13 +3896,13 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>238</v>
@@ -3947,13 +3913,13 @@
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C135" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>234</v>
@@ -3964,13 +3930,13 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C136" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>234</v>
@@ -3981,13 +3947,13 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>234</v>
@@ -3998,7 +3964,7 @@
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>127</v>
@@ -4015,7 +3981,7 @@
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>129</v>
@@ -4029,13 +3995,13 @@
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C140" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>234</v>
@@ -4046,13 +4012,13 @@
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C141" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>234</v>
@@ -4063,13 +4029,13 @@
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>234</v>
@@ -4080,13 +4046,13 @@
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C143" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>238</v>
@@ -4097,10 +4063,10 @@
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>149</v>
@@ -4114,13 +4080,13 @@
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>113</v>
@@ -4128,13 +4094,13 @@
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C146" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>234</v>
@@ -4145,13 +4111,13 @@
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="D148" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>234</v>
@@ -4163,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I148" t="s">
         <v>46</v>
@@ -4174,13 +4140,13 @@
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C149" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>234</v>
@@ -4191,7 +4157,7 @@
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>127</v>
@@ -4208,7 +4174,7 @@
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>183</v>
@@ -4225,7 +4191,7 @@
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>129</v>
@@ -4239,7 +4205,7 @@
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>46</v>
@@ -4268,13 +4234,13 @@
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>238</v>
@@ -4285,13 +4251,13 @@
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C156" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>234</v>
@@ -4302,7 +4268,7 @@
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>127</v>
@@ -4319,7 +4285,7 @@
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>129</v>
@@ -4333,7 +4299,7 @@
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>183</v>
@@ -4350,7 +4316,7 @@
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>46</v>
@@ -4379,13 +4345,13 @@
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>113</v>
@@ -4393,13 +4359,13 @@
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="D164" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>234</v>
@@ -4411,7 +4377,7 @@
         <v>43</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I164" t="s">
         <v>46</v>
@@ -4422,13 +4388,13 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>234</v>
@@ -4440,7 +4406,7 @@
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>127</v>
@@ -4458,7 +4424,7 @@
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>183</v>
@@ -4476,10 +4442,10 @@
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="9" t="s">
@@ -4492,7 +4458,7 @@
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>46</v>
@@ -4519,10 +4485,10 @@
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="9" t="s">
@@ -4535,10 +4501,10 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="9" t="s">
@@ -4551,10 +4517,10 @@
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="9" t="s">
@@ -4567,7 +4533,7 @@
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>129</v>
@@ -4580,10 +4546,10 @@
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="9" t="s">
@@ -4593,13 +4559,13 @@
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>234</v>
@@ -4622,13 +4588,13 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>238</v>
@@ -4636,13 +4602,13 @@
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C179" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>238</v>
@@ -4650,13 +4616,13 @@
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C180" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>234</v>
@@ -4667,13 +4633,13 @@
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C181" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>234</v>
@@ -4684,13 +4650,13 @@
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C182" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>234</v>
@@ -4701,13 +4667,13 @@
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C183" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>113</v>
@@ -4715,13 +4681,13 @@
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>234</v>
@@ -4744,13 +4710,13 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>113</v>
@@ -4758,7 +4724,7 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>125</v>
@@ -4772,13 +4738,13 @@
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="D188" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="E188" t="s">
         <v>238</v>
@@ -4786,13 +4752,13 @@
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>151</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E189" t="s">
         <v>238</v>
@@ -4800,7 +4766,7 @@
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>68</v>
@@ -4817,13 +4783,13 @@
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E191" t="s">
         <v>238</v>
@@ -4831,13 +4797,13 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C192" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>234</v>
@@ -4848,13 +4814,13 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>113</v>
@@ -4862,13 +4828,13 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C194" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="E194" t="s">
         <v>238</v>
@@ -4879,13 +4845,13 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C195" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>234</v>
@@ -4896,13 +4862,13 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C196" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>113</v>
@@ -4910,10 +4876,10 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" t="s">
@@ -4926,46 +4892,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C99">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:C107">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:C114">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124:C128">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C146">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C152">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148:I148">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154:C159">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161:C162">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:C168">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:I164">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170:C175">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177:C183">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185:C197">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
